--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_41_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_41_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -4525,7 +4525,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_41_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_41_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="105.38988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,189 +1397,281 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:26</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>36942</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>YMLU3168671</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>ASB</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>TVL</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-05-11T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1426713</v>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>36962</v>
+        <v>36959</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>FSCU3589953</t>
+          <t>PCIU3970195</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1724,17 +1717,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L8" s="0" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="L8" s="4" t="d">
+        <v>2018-05-16T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N8" s="0"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1748,7 +1741,7 @@
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
-        <v>1428989</v>
+        <v>1428672</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
@@ -1762,7 +1755,7 @@
       </c>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>F/B SCRAP DIRTY &amp; SCRACHED</t>
+          <t>FLOOR BOARD DIRTY BY SCRAP (BADLY) &amp; HOLE 12"X12"</t>
         </is>
       </c>
       <c r="Y8" s="0" t="inlineStr">
@@ -1783,11 +1776,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>36962</v>
+        <v>36959</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>FSCU3589953</t>
+          <t>PCIU3970195</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -1833,17 +1826,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="L9" s="4" t="d">
+        <v>2018-05-16T00:00:00</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N9" s="0"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1857,21 +1850,21 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="n">
-        <v>1428989</v>
+        <v>1428672</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W9" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>RIGHT SIDE F/B NO.1 HOLE 2"X2" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2"X2"</t>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION</t>
         </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
@@ -1892,11 +1885,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>36962</v>
+        <v>36959</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>FSCU3589953</t>
+          <t>PCIU3970195</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -1942,17 +1935,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
+      <c r="L10" s="4" t="d">
+        <v>2018-05-16T00:00:00</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N10" s="0"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
@@ -1966,7 +1959,7 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1428989</v>
+        <v>1428672</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
@@ -1980,7 +1973,7 @@
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>RIGHT SITE PANEL NO.3 PUSH IN 30"X15"</t>
+          <t>ROOF PANEL 2 DENT 30"X35"</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -2001,11 +1994,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>36962</v>
+        <v>36959</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>FSCU3589953</t>
+          <t>PCIU3970195</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2051,17 +2044,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
+      <c r="L11" s="4" t="d">
+        <v>2018-05-16T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N11" s="0"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -2075,7 +2068,7 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1428989</v>
+        <v>1428672</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
@@ -2089,7 +2082,7 @@
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL SCRACHED &amp; RUSTED</t>
+          <t>LEFT SIDE PANEL 4 DENT 30"X20"</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2160,15 +2153,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
+      <c r="L12" s="4" t="d">
         <v>2018-05-17T00:00:00</v>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N12" s="0"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
         <v>195</v>
       </c>
@@ -2188,17 +2181,17 @@
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>LEFT SIDE PANEL NO.1 HOLE 2"X2"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1"X1" 2 PLS</t>
+          <t>F/B SCRAP DIRTY &amp; SCRACHED</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2269,15 +2262,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
+      <c r="L13" s="4" t="d">
         <v>2018-05-17T00:00:00</v>
       </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N13" s="0"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
         <v>195</v>
       </c>
@@ -2297,17 +2290,17 @@
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W13" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>LEFT SIDE PANEL NO.3 HOLE 3"X2" 3 PLS</t>
+          <t>RIGHT SIDE F/B NO.1 HOLE 2"X2" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2"X2"</t>
         </is>
       </c>
       <c r="Y13" s="0" t="inlineStr">
@@ -2378,15 +2371,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L14" s="0" t="d">
+      <c r="L14" s="4" t="d">
         <v>2018-05-17T00:00:00</v>
       </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N14" s="0"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
         <v>195</v>
       </c>
@@ -2406,17 +2399,17 @@
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCK BAR BENT 1 PES</t>
+          <t>RIGHT SITE PANEL NO.3 PUSH IN 30"X15"</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2437,11 +2430,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>36963</v>
+        <v>36962</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>FCIU2366133</t>
+          <t>FSCU3589953</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2487,15 +2480,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L15" s="0" t="d">
+      <c r="L15" s="4" t="d">
         <v>2018-05-17T00:00:00</v>
       </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N15" s="0"/>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
         <v>195</v>
       </c>
@@ -2511,21 +2504,21 @@
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1429033</v>
+        <v>1428989</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY STONE DUST </t>
+          <t>INTERNAL SCRACHED &amp; RUSTED</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2546,11 +2539,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>36965</v>
+        <v>36962</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>FSCU3617931</t>
+          <t>FSCU3589953</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2596,17 +2589,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L16" s="0" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
+      <c r="L16" s="4" t="d">
+        <v>2018-05-17T00:00:00</v>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N16" s="0"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0</v>
@@ -2620,7 +2613,7 @@
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1429482</v>
+        <v>1428989</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2634,7 +2627,7 @@
       </c>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL DIRTY &amp; SCRATCH</t>
+          <t>LEFT SIDE PANEL NO.1 HOLE 2"X2"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1"X1" 2 PLS</t>
         </is>
       </c>
       <c r="Y16" s="0" t="inlineStr">
@@ -2655,11 +2648,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>36965</v>
+        <v>36962</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>FSCU3617931</t>
+          <t>FSCU3589953</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2705,17 +2698,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L17" s="0" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="L17" s="4" t="d">
+        <v>2018-05-17T00:00:00</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N17" s="0"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0</v>
@@ -2729,7 +2722,7 @@
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1429482</v>
+        <v>1428989</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2743,7 +2736,7 @@
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>L/S PANEL 3 HOLE 1"X1"</t>
+          <t>LEFT SIDE PANEL NO.3 HOLE 3"X2" 3 PLS</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2764,11 +2757,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>36965</v>
+        <v>36962</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>FSCU3617931</t>
+          <t>FSCU3589953</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2814,17 +2807,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L18" s="0" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
+      <c r="L18" s="4" t="d">
+        <v>2018-05-17T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N18" s="0"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2838,21 +2831,21 @@
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1429482</v>
+        <v>1428989</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>F/B BROKEN HOLE 60"X48" &amp; HOLE 6"X6" AT 4 PLS &amp; BROKEN DOWN 15"X12"</t>
+          <t>RIGHT DOOR LOCK BAR BENT 1 PES</t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2873,11 +2866,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>36965</v>
+        <v>36963</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>FSCU3617931</t>
+          <t>FCIU2366133</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -2923,17 +2916,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L19" s="0" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N19" s="0"/>
+      <c r="L19" s="4" t="d">
+        <v>2018-05-17T00:00:00</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
@@ -2947,7 +2940,7 @@
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0" t="n">
-        <v>1429482</v>
+        <v>1429033</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
@@ -2956,12 +2949,12 @@
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.</t>
+          <t>FLOOR BOARD DIRTY BY STONE DUST </t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2982,11 +2975,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>36968</v>
+        <v>36965</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>CLHU2140298</t>
+          <t>FSCU3617931</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3032,17 +3025,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L20" s="0" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
+      <c r="L20" s="4" t="d">
+        <v>2018-05-18T00:00:00</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N20" s="0"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0</v>
@@ -3056,21 +3049,21 @@
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1430421</v>
+        <v>1429482</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>F/B SCRAP BEDLY DIRTY &amp;  SCRACHED/OIL STAIN</t>
+          <t>INTERNAL DIRTY &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3091,11 +3084,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>36968</v>
+        <v>36965</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>CLHU2140298</t>
+          <t>FSCU3617931</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3141,17 +3134,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L21" s="0" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
+      <c r="L21" s="4" t="d">
+        <v>2018-05-18T00:00:00</v>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N21" s="0"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0</v>
@@ -3165,21 +3158,21 @@
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0" t="n">
-        <v>1430421</v>
+        <v>1429482</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>BOTH SIDE F/B HOLE 10"X5,15"X10" &amp; 15"X15" AT 3PLS</t>
+          <t>L/S PANEL 3 HOLE 1"X1"</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3200,11 +3193,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>36968</v>
+        <v>36965</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>CLHU2140298</t>
+          <t>FSCU3617931</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3250,17 +3243,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L22" s="0" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
+      <c r="L22" s="4" t="d">
+        <v>2018-05-18T00:00:00</v>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N22" s="0"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -3274,21 +3267,21 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0" t="n">
-        <v>1430421</v>
+        <v>1429482</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W22" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL SCRATCH BADLY</t>
+          <t>F/B BROKEN HOLE 60"X48" &amp; HOLE 6"X6" AT 4 PLS &amp; BROKEN DOWN 15"X12"</t>
         </is>
       </c>
       <c r="Y22" s="0" t="inlineStr">
@@ -3309,11 +3302,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>36968</v>
+        <v>36965</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>CLHU2140298</t>
+          <t>FSCU3617931</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3359,17 +3352,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L23" s="0" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
+      <c r="L23" s="4" t="d">
+        <v>2018-05-18T00:00:00</v>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N23" s="0"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0</v>
@@ -3383,21 +3376,21 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0" t="n">
-        <v>1430421</v>
+        <v>1429482</v>
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W23" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>RIGHT SIDE PANEL NO.3 CUT 15"X10 &amp; PUSH IN-PUSH OUT AT V/P</t>
+          <t>FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.</t>
         </is>
       </c>
       <c r="Y23" s="0" t="inlineStr">
@@ -3468,15 +3461,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L24" s="0" t="d">
+      <c r="L24" s="4" t="d">
         <v>2018-05-20T00:00:00</v>
       </c>
-      <c r="M24" s="0" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N24" s="0"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
         <v>192</v>
       </c>
@@ -3496,17 +3489,17 @@
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W24" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR BOTTOM GASKET LOSE 20"</t>
+          <t>F/B SCRAP BEDLY DIRTY &amp;  SCRACHED/OIL STAIN</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3577,15 +3570,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L25" s="0" t="d">
+      <c r="L25" s="4" t="d">
         <v>2018-05-20T00:00:00</v>
       </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N25" s="0"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
         <v>192</v>
       </c>
@@ -3605,17 +3598,17 @@
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL DENT AT V/P</t>
+          <t>BOTH SIDE F/B HOLE 10"X5,15"X10" &amp; 15"X15" AT 3PLS</t>
         </is>
       </c>
       <c r="Y25" s="0" t="inlineStr">
@@ -3636,11 +3629,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>37061</v>
+        <v>36968</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>KKTU7045653</t>
+          <t>CLHU2140298</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3686,17 +3679,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L26" s="0" t="d">
-        <v>2018-07-08T00:00:00</v>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N26" s="0"/>
+      <c r="L26" s="4" t="d">
+        <v>2018-05-20T00:00:00</v>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
@@ -3710,21 +3703,21 @@
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0" t="n">
-        <v>1450267</v>
+        <v>1430421</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W26" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>INTERNAL PANEL SCRATCH BADLY</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3745,11 +3738,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>37061</v>
+        <v>36968</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>KKTU7045653</t>
+          <t>CLHU2140298</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3795,17 +3788,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L27" s="0" t="d">
-        <v>2018-07-08T00:00:00</v>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N27" s="0"/>
+      <c r="L27" s="4" t="d">
+        <v>2018-05-20T00:00:00</v>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -3819,7 +3812,7 @@
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1450267</v>
+        <v>1430421</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
@@ -3833,7 +3826,7 @@
       </c>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>INERNAL PANEL DIRTY</t>
+          <t>RIGHT SIDE PANEL NO.3 CUT 15"X10 &amp; PUSH IN-PUSH OUT AT V/P</t>
         </is>
       </c>
       <c r="Y27" s="0" t="inlineStr">
@@ -3854,11 +3847,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>37869</v>
+        <v>36968</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>FSCU7858027</t>
+          <t>CLHU2140298</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -3891,30 +3884,30 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE</t>
+          <t/>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>2018/641</t>
+          <t/>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="N28" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="d">
+        <v>2018-05-20T00:00:00</v>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -3928,22 +3921,46 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1474959</v>
-      </c>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+        <v>1430421</v>
+      </c>
+      <c r="V28" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET LOSE 20"</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>36942</v>
+        <v>36968</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>YMLU3168671</t>
+          <t>CLHU2140298</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -3989,17 +4006,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L29" s="0" t="d">
-        <v>2018-05-11T00:00:00</v>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N29" s="0"/>
+      <c r="L29" s="4" t="d">
+        <v>2018-05-20T00:00:00</v>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -4013,21 +4030,21 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1426713</v>
+        <v>1430421</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>ROOF PANEL DENT AT V/P</t>
         </is>
       </c>
       <c r="Y29" s="0" t="inlineStr">
@@ -4048,11 +4065,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>36959</v>
+        <v>37061</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>PCIU3970195</t>
+          <t>KKTU7045653</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4098,17 +4115,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L30" s="0" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N30" s="0"/>
+      <c r="L30" s="4" t="d">
+        <v>2018-07-08T00:00:00</v>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -4122,7 +4139,7 @@
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1428672</v>
+        <v>1450267</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4136,7 +4153,7 @@
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP (BADLY) &amp; HOLE 12"X12"</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y30" s="0" t="inlineStr">
@@ -4157,11 +4174,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>36959</v>
+        <v>37061</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>PCIU3970195</t>
+          <t>KKTU7045653</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4207,17 +4224,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L31" s="0" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N31" s="0"/>
+      <c r="L31" s="4" t="d">
+        <v>2018-07-08T00:00:00</v>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -4231,7 +4248,7 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1428672</v>
+        <v>1450267</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
@@ -4245,7 +4262,7 @@
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION</t>
+          <t>INERNAL PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4266,11 +4283,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>36959</v>
+        <v>37869</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>PCIU3970195</t>
+          <t>FSCU7858027</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4303,30 +4320,30 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>HAPPY BEE</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2018/641</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N32" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0</v>
@@ -4340,147 +4357,14 @@
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1428672</v>
-      </c>
-      <c r="V32" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL 2 DENT 30"X35"</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>36959</v>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>PCIU3970195</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0" t="n">
-        <v>196</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="0" t="n">
-        <v>1428672</v>
-      </c>
-      <c r="V33" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL 4 DENT 30"X20"</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1474959</v>
+      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -4503,23 +4387,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -4529,118 +4413,116 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>ASB</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>TVL</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>20-GP</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>8</v>
       </c>
     </row>
